--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\js\smart8\backend\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\js\smart8\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1481C0E-6133-4A8C-8F11-2CD3961A31B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9E011F-7558-4AC7-B136-FACC585ECBA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -531,499 +532,697 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
         <v>40</v>
       </c>
-      <c r="B40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="B41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
         <v>44</v>
       </c>
-      <c r="B42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
         <v>45</v>
       </c>
-      <c r="B43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
         <v>46</v>
       </c>
-      <c r="B44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
         <v>47</v>
       </c>
-      <c r="B45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
         <v>48</v>
       </c>
-      <c r="B46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="C46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
         <v>49</v>
       </c>
-      <c r="B47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
         <v>50</v>
       </c>
-      <c r="B48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
         <v>51</v>
       </c>
-      <c r="B49" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="C49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
         <v>52</v>
       </c>
-      <c r="B50" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
         <v>53</v>
       </c>
-      <c r="B51" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="C51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
         <v>54</v>
       </c>
-      <c r="B52" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
         <v>55</v>
       </c>
-      <c r="B53" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="C53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
         <v>56</v>
       </c>
-      <c r="B54" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="C54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>15</v>
+      </c>
+      <c r="B55" t="s">
         <v>57</v>
       </c>
-      <c r="B55" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="C55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s">
         <v>58</v>
       </c>
-      <c r="B56" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="C56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>17</v>
+      </c>
+      <c r="B57" t="s">
         <v>59</v>
       </c>
-      <c r="B57" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="C57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>18</v>
+      </c>
+      <c r="B58" t="s">
         <v>60</v>
       </c>
-      <c r="B58" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>19</v>
+      </c>
+      <c r="B59" t="s">
         <v>61</v>
       </c>
-      <c r="B59" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="C59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
         <v>62</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D06F4B4-5745-445F-9852-09BE1D2E40F5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B40" sqref="A1:B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>